--- a/src/loader_package/xlsx/big_pre_load.xlsx
+++ b/src/loader_package/xlsx/big_pre_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\ING3\Informatique\Projet\java_project_desautel_pellen_perold\src\loader_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34E34F-DA9E-4D40-97C3-AB1E4F023FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{B399591D-5F6E-41E0-B237-1997D581FB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -6131,21 +6131,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M894" sqref="M894"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1903</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>1907</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>1908</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>97</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>103</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>106</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>110</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>124</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>127</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>131</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>134</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>138</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>142</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>145</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>148</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>152</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>155</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>158</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>162</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>166</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>170</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>121</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>175</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>179</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>182</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>186</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>189</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>191</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>194</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>197</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>200</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>205</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>207</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>210</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>213</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>216</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>220</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>223</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>226</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>229</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>232</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>235</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>238</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>241</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>244</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>247</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>251</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
         <v>254</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>257</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>260</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
         <v>263</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
         <v>266</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
         <v>269</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>272</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
         <v>275</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
         <v>278</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>281</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>283</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>286</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
         <v>290</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>293</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>296</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
         <v>300</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>303</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>306</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
         <v>309</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
         <v>312</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>314</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>317</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>167</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
         <v>293</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
         <v>324</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>244</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
         <v>329</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
         <v>332</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
         <v>269</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
         <v>312</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
         <v>340</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
         <v>343</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>347</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
         <v>220</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
         <v>58</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
         <v>110</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
         <v>354</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
         <v>357</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
         <v>360</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
         <v>162</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
         <v>365</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
         <v>368</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
         <v>370</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
         <v>373</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>376</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>379</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
         <v>383</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
         <v>386</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
         <v>389</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
         <v>392</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
         <v>354</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
         <v>223</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
         <v>399</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
         <v>309</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
         <v>158</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
         <v>406</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
         <v>148</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
         <v>303</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
         <v>314</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
         <v>416</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="s">
         <v>419</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
         <v>213</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
         <v>49</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="s">
         <v>426</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
         <v>429</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
         <v>432</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="5" t="s">
         <v>167</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
         <v>238</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
         <v>440</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="s">
         <v>443</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
         <v>446</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
         <v>449</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
         <v>452</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
         <v>454</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
         <v>457</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="5" t="s">
         <v>460</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
         <v>463</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="5" t="s">
         <v>466</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
         <v>469</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
         <v>32</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
         <v>473</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
         <v>476</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
         <v>479</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
         <v>207</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
         <v>483</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
         <v>486</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
         <v>251</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="s">
         <v>491</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
         <v>494</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
         <v>236</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="s">
         <v>498</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="s">
         <v>500</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="s">
         <v>332</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="s">
         <v>505</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="s">
         <v>507</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="s">
         <v>509</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
         <v>512</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="5" t="s">
         <v>515</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="5" t="s">
         <v>255</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="5" t="s">
         <v>386</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="5" t="s">
         <v>522</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="5" t="s">
         <v>524</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="5" t="s">
         <v>527</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="5" t="s">
         <v>529</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="5" t="s">
         <v>229</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="5" t="s">
         <v>534</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="5" t="s">
         <v>537</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
         <v>540</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
         <v>542</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
         <v>545</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
         <v>547</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
         <v>303</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
         <v>552</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
         <v>555</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="5" t="s">
         <v>324</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="5" t="s">
         <v>558</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="5" t="s">
         <v>226</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="5" t="s">
         <v>406</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="5" t="s">
         <v>564</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="5" t="s">
         <v>566</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="5" t="s">
         <v>568</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="5" t="s">
         <v>260</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="5" t="s">
         <v>340</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="5" t="s">
         <v>574</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="5" t="s">
         <v>577</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="5" t="s">
         <v>580</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="5" t="s">
         <v>583</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="5" t="s">
         <v>446</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="5" t="s">
         <v>588</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="5" t="s">
         <v>590</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="5" t="s">
         <v>593</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
         <v>223</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
         <v>598</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
         <v>601</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
         <v>376</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
         <v>605</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
         <v>608</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
         <v>580</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
         <v>613</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
         <v>20</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
         <v>307</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
         <v>620</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
         <v>32</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="s">
         <v>624</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
         <v>627</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="5" t="s">
         <v>630</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="5" t="s">
         <v>343</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="5" t="s">
         <v>244</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="5" t="s">
         <v>636</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="5" t="s">
         <v>244</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="5" t="s">
         <v>641</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="5" t="s">
         <v>644</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="5" t="s">
         <v>621</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="5" t="s">
         <v>647</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="5" t="s">
         <v>650</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="5" t="s">
         <v>652</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="5" t="s">
         <v>654</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="5" t="s">
         <v>97</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="5" t="s">
         <v>657</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="5" t="s">
         <v>660</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="5" t="s">
         <v>663</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="5" t="s">
         <v>449</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="5" t="s">
         <v>290</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="5" t="s">
         <v>668</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="5" t="s">
         <v>671</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="5" t="s">
         <v>406</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
         <v>678</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
         <v>484</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="s">
         <v>683</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="s">
         <v>686</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
         <v>370</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="s">
         <v>691</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="5" t="s">
         <v>446</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="5" t="s">
         <v>696</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" s="5" t="s">
         <v>699</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="5" t="s">
         <v>701</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="5" t="s">
         <v>704</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="5" t="s">
         <v>706</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="5" t="s">
         <v>709</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="5" t="s">
         <v>400</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="5" t="s">
         <v>713</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" s="5" t="s">
         <v>114</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="5" t="s">
         <v>718</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="5" t="s">
         <v>621</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="5" t="s">
         <v>399</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="5" t="s">
         <v>463</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="5" t="s">
         <v>368</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="5" t="s">
         <v>729</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="5" t="s">
         <v>429</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="5" t="s">
         <v>732</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="5" t="s">
         <v>735</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="5" t="s">
         <v>399</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="5" t="s">
         <v>739</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="5" t="s">
         <v>247</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="5" t="s">
         <v>744</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="5" t="s">
         <v>746</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="5" t="s">
         <v>749</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="5" t="s">
         <v>751</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="5" t="s">
         <v>754</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="5" t="s">
         <v>558</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="5" t="s">
         <v>309</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="5" t="s">
         <v>189</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="5" t="s">
         <v>763</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="5" t="s">
         <v>766</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="5" t="s">
         <v>422</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="5" t="s">
         <v>771</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="5" t="s">
         <v>774</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="5" t="s">
         <v>373</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="5" t="s">
         <v>419</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="5" t="s">
         <v>780</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="5" t="s">
         <v>782</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="5" t="s">
         <v>564</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="5" t="s">
         <v>786</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" s="5" t="s">
         <v>309</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="5" t="s">
         <v>789</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="5" t="s">
         <v>329</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="5" t="s">
         <v>131</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="5" t="s">
         <v>793</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
         <v>644</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
         <v>798</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
         <v>307</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
         <v>802</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="5" t="s">
         <v>654</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="5" t="s">
         <v>530</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="5" t="s">
         <v>808</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="5" t="s">
         <v>134</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="5" t="s">
         <v>153</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="5" t="s">
         <v>657</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="5" t="s">
         <v>739</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="5" t="s">
         <v>815</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="5" t="s">
         <v>818</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="5" t="s">
         <v>821</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="5" t="s">
         <v>823</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="5" t="s">
         <v>826</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="5" t="s">
         <v>828</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="5" t="s">
         <v>831</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="5" t="s">
         <v>683</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="5" t="s">
         <v>621</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="5" t="s">
         <v>839</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="5" t="s">
         <v>842</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="5" t="s">
         <v>844</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="5" t="s">
         <v>847</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="5" t="s">
         <v>850</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="5" t="s">
         <v>853</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="5" t="s">
         <v>856</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="5" t="s">
         <v>858</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="5" t="s">
         <v>153</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="5" t="s">
         <v>861</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="5" t="s">
         <v>864</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="5" t="s">
         <v>663</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="5" t="s">
         <v>534</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="5" t="s">
         <v>247</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="5" t="s">
         <v>861</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="5" t="s">
         <v>873</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="5" t="s">
         <v>278</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="5" t="s">
         <v>435</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="5" t="s">
         <v>216</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="5" t="s">
         <v>290</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="5" t="s">
         <v>881</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="5" t="s">
         <v>300</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="5" t="s">
         <v>885</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="5" t="s">
         <v>446</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="5" t="s">
         <v>889</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="5" t="s">
         <v>704</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" s="5" t="s">
         <v>568</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" s="5" t="s">
         <v>895</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" s="5" t="s">
         <v>850</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" s="5" t="s">
         <v>899</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" s="5" t="s">
         <v>901</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="5" t="s">
         <v>903</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="5" t="s">
         <v>906</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="5" t="s">
         <v>909</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="5" t="s">
         <v>912</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" s="5" t="s">
         <v>914</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" s="5" t="s">
         <v>839</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" s="5" t="s">
         <v>766</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" s="5" t="s">
         <v>590</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" s="5" t="s">
         <v>920</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" s="5" t="s">
         <v>580</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" s="5" t="s">
         <v>624</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" s="5" t="s">
         <v>568</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" s="5" t="s">
         <v>928</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" s="5" t="s">
         <v>148</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" s="5" t="s">
         <v>931</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" s="5" t="s">
         <v>618</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" s="5" t="s">
         <v>399</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" s="5" t="s">
         <v>232</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" s="5" t="s">
         <v>938</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" s="5" t="s">
         <v>941</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" s="5" t="s">
         <v>166</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" s="5" t="s">
         <v>696</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" s="5" t="s">
         <v>729</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" s="5" t="s">
         <v>950</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" s="5" t="s">
         <v>281</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" s="5" t="s">
         <v>955</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" s="5" t="s">
         <v>65</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" s="5" t="s">
         <v>960</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" s="5" t="s">
         <v>170</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" s="5" t="s">
         <v>454</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" s="5" t="s">
         <v>964</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" s="5" t="s">
         <v>660</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" s="5" t="s">
         <v>135</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" s="5" t="s">
         <v>969</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" s="5" t="s">
         <v>885</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" s="5" t="s">
         <v>194</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" s="5" t="s">
         <v>696</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" s="5" t="s">
         <v>847</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" s="5" t="s">
         <v>78</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" s="5" t="s">
         <v>978</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" s="5" t="s">
         <v>106</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" s="5" t="s">
         <v>744</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" s="5" t="s">
         <v>964</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" s="5" t="s">
         <v>889</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" s="5" t="s">
         <v>676</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" s="5" t="s">
         <v>990</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" s="5" t="s">
         <v>826</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" s="5" t="s">
         <v>406</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" s="5" t="s">
         <v>590</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" s="5" t="s">
         <v>733</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" s="5" t="s">
         <v>828</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" s="5" t="s">
         <v>630</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" s="5" t="s">
         <v>1001</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" s="5" t="s">
         <v>1004</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" s="5" t="s">
         <v>400</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" s="5" t="s">
         <v>1009</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" s="5" t="s">
         <v>821</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" s="5" t="s">
         <v>1013</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" s="5" t="s">
         <v>90</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" s="5" t="s">
         <v>990</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" s="5" t="s">
         <v>1020</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" s="5" t="s">
         <v>494</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" s="5" t="s">
         <v>260</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" s="5" t="s">
         <v>1024</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" s="5" t="s">
         <v>118</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" s="5" t="s">
         <v>1028</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" s="5" t="s">
         <v>197</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" s="5" t="s">
         <v>608</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" s="5" t="s">
         <v>1034</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" s="5" t="s">
         <v>920</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" s="5" t="s">
         <v>1041</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" s="5" t="s">
         <v>938</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" s="5" t="s">
         <v>683</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" s="5" t="s">
         <v>782</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" s="5" t="s">
         <v>383</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" s="5" t="s">
         <v>931</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" s="5" t="s">
         <v>815</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" s="5" t="s">
         <v>1052</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" s="5" t="s">
         <v>303</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" s="5" t="s">
         <v>343</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" s="5" t="s">
         <v>1059</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" s="5" t="s">
         <v>1060</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" s="5" t="s">
         <v>483</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" s="5" t="s">
         <v>1063</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" s="5" t="s">
         <v>1066</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" s="5" t="s">
         <v>636</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" s="5" t="s">
         <v>343</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" s="5" t="s">
         <v>647</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" s="5" t="s">
         <v>1071</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" s="5" t="s">
         <v>839</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" s="5" t="s">
         <v>216</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" s="5" t="s">
         <v>1009</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" s="5" t="s">
         <v>491</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" s="5" t="s">
         <v>1082</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" s="5" t="s">
         <v>484</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" s="5" t="s">
         <v>738</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" s="5" t="s">
         <v>360</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" s="5" t="s">
         <v>850</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" s="5" t="s">
         <v>1090</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" s="5" t="s">
         <v>364</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" s="5" t="s">
         <v>1093</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" s="5" t="s">
         <v>818</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" s="5" t="s">
         <v>861</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" s="5" t="s">
         <v>826</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" s="5" t="s">
         <v>1099</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" s="5" t="s">
         <v>630</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" s="5" t="s">
         <v>1103</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" s="5" t="s">
         <v>751</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" s="5" t="s">
         <v>300</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" s="5" t="s">
         <v>1110</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" s="5" t="s">
         <v>191</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" s="5" t="s">
         <v>220</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" s="5" t="s">
         <v>1116</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" s="5" t="s">
         <v>232</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" s="5" t="s">
         <v>620</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" s="5" t="s">
         <v>713</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" s="5" t="s">
         <v>1028</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" s="5" t="s">
         <v>1123</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" s="5" t="s">
         <v>960</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" s="5" t="s">
         <v>1127</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" s="5" t="s">
         <v>1130</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" s="5" t="s">
         <v>191</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" s="5" t="s">
         <v>1134</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" s="5" t="s">
         <v>1136</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" s="5" t="s">
         <v>324</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" s="5" t="s">
         <v>798</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" s="5" t="s">
         <v>590</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" s="5" t="s">
         <v>360</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" s="5" t="s">
         <v>1142</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" s="5" t="s">
         <v>630</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" s="5" t="s">
         <v>205</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" s="5" t="s">
         <v>110</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" s="5" t="s">
         <v>340</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" s="5" t="s">
         <v>28</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" s="5" t="s">
         <v>110</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" s="5" t="s">
         <v>701</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" s="5" t="s">
         <v>98</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" s="5" t="s">
         <v>1153</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" s="5" t="s">
         <v>36</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" s="5" t="s">
         <v>1066</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" s="5" t="s">
         <v>1159</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" s="5" t="s">
         <v>155</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" s="5" t="s">
         <v>691</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" s="5" t="s">
         <v>309</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" s="5" t="s">
         <v>978</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" s="5" t="s">
         <v>1167</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" s="5" t="s">
         <v>167</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" s="5" t="s">
         <v>627</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" s="5" t="s">
         <v>1172</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" s="5" t="s">
         <v>197</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" s="5" t="s">
         <v>901</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" s="5" t="s">
         <v>789</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" s="5" t="s">
         <v>200</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" s="5" t="s">
         <v>818</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" s="5" t="s">
         <v>1130</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" s="5" t="s">
         <v>1184</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502" s="5" t="s">
         <v>357</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503" s="5" t="s">
         <v>1186</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504" s="5" t="s">
         <v>1188</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" s="5" t="s">
         <v>847</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506" s="5" t="s">
         <v>281</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507" s="5" t="s">
         <v>842</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508" s="5" t="s">
         <v>1195</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509" s="5" t="s">
         <v>1197</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510" s="5" t="s">
         <v>1037</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511" s="5" t="s">
         <v>303</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512" s="5" t="s">
         <v>127</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513" s="5" t="s">
         <v>1204</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514" s="5" t="s">
         <v>577</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515" s="5" t="s">
         <v>568</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516" s="5" t="s">
         <v>1210</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517" s="5" t="s">
         <v>266</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518" s="5" t="s">
         <v>932</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519" s="5" t="s">
         <v>1034</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520" s="5" t="s">
         <v>699</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521" s="5" t="s">
         <v>1215</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522" s="5" t="s">
         <v>78</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523" s="5" t="s">
         <v>522</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524" s="5" t="s">
         <v>118</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525" s="5" t="s">
         <v>709</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526" s="5" t="s">
         <v>1223</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527" s="5" t="s">
         <v>547</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528" s="5" t="s">
         <v>1130</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529" s="5" t="s">
         <v>699</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530" s="5" t="s">
         <v>749</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531" s="5" t="s">
         <v>1231</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532" s="5" t="s">
         <v>1234</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533" s="5" t="s">
         <v>1236</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534" s="5" t="s">
         <v>1238</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535" s="5" t="s">
         <v>1240</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536" s="5" t="s">
         <v>1243</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537" s="5" t="s">
         <v>566</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538" s="5" t="s">
         <v>808</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539" s="5" t="s">
         <v>1071</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540" s="5" t="s">
         <v>1247</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541" s="5" t="s">
         <v>1116</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542" s="5" t="s">
         <v>383</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543" s="5" t="s">
         <v>491</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544" s="5" t="s">
         <v>1255</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545" s="5" t="s">
         <v>440</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546" s="5" t="s">
         <v>1082</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547" s="5" t="s">
         <v>1261</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548" s="5" t="s">
         <v>167</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549" s="5" t="s">
         <v>469</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550" s="5" t="s">
         <v>1265</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551" s="5" t="s">
         <v>786</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552" s="5" t="s">
         <v>484</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553" s="5" t="s">
         <v>114</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554" s="5" t="s">
         <v>955</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555" s="5" t="s">
         <v>189</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556" s="5" t="s">
         <v>24</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557" s="5" t="s">
         <v>1279</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558" s="5" t="s">
         <v>1282</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559" s="5" t="s">
         <v>364</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560" s="5" t="s">
         <v>1285</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561" s="5" t="s">
         <v>735</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562" s="5" t="s">
         <v>1200</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563" s="5" t="s">
         <v>286</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564" s="5" t="s">
         <v>1291</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565" s="5" t="s">
         <v>354</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567" s="5" t="s">
         <v>114</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" s="5" t="s">
         <v>416</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569" s="5" t="s">
         <v>650</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570" s="5" t="s">
         <v>955</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571" s="5" t="s">
         <v>1140</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572" s="5" t="s">
         <v>1304</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573" s="5" t="s">
         <v>473</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574" s="5" t="s">
         <v>709</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575" s="5" t="s">
         <v>818</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576" s="5" t="s">
         <v>1310</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577" s="5" t="s">
         <v>1312</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578" s="5" t="s">
         <v>153</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579" s="5" t="s">
         <v>1315</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580" s="5" t="s">
         <v>426</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581" s="5" t="s">
         <v>1282</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582" s="5" t="s">
         <v>1285</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583" s="5" t="s">
         <v>484</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584" s="5" t="s">
         <v>1323</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585" s="5" t="s">
         <v>1326</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586" s="5" t="s">
         <v>522</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587" s="5" t="s">
         <v>32</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588" s="5" t="s">
         <v>238</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589" s="5" t="s">
         <v>709</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590" s="5" t="s">
         <v>155</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591" s="5" t="s">
         <v>1335</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592" s="5" t="s">
         <v>1261</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593" s="5" t="s">
         <v>1338</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594" s="5" t="s">
         <v>1340</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596" s="5" t="s">
         <v>1231</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597" s="5" t="s">
         <v>1345</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599" s="5" t="s">
         <v>1349</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600" s="5" t="s">
         <v>844</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601" s="5" t="s">
         <v>340</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602" s="5" t="s">
         <v>1354</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603" s="5" t="s">
         <v>57</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604" s="5" t="s">
         <v>889</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605" s="5" t="s">
         <v>1359</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606" s="5" t="s">
         <v>895</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607" s="5" t="s">
         <v>179</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608" s="5" t="s">
         <v>1363</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609" s="5" t="s">
         <v>1366</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610" s="5" t="s">
         <v>1282</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611" s="5" t="s">
         <v>1370</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612" s="5" t="s">
         <v>1371</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613" s="5" t="s">
         <v>545</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614" s="5" t="s">
         <v>469</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615" s="5" t="s">
         <v>1377</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616" s="5" t="s">
         <v>1247</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617" s="5" t="s">
         <v>885</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618" s="5" t="s">
         <v>895</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619" s="5" t="s">
         <v>78</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620" s="5" t="s">
         <v>1384</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621" s="5" t="s">
         <v>706</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622" s="5" t="s">
         <v>510</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623" s="5" t="s">
         <v>312</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" s="5" t="s">
         <v>1388</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625" s="5" t="s">
         <v>1390</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626" s="5" t="s">
         <v>1393</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627" s="5" t="s">
         <v>36</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629" s="5" t="s">
         <v>678</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630" s="5" t="s">
         <v>1398</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631" s="5" t="s">
         <v>28</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632" s="5" t="s">
         <v>118</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633" s="5" t="s">
         <v>435</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634" s="5" t="s">
         <v>1204</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636" s="5" t="s">
         <v>13</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637" s="5" t="s">
         <v>386</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638" s="5" t="s">
         <v>327</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639" s="5" t="s">
         <v>98</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640" s="5" t="s">
         <v>1060</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641" s="5" t="s">
         <v>1412</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642" s="5" t="s">
         <v>1414</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643" s="5" t="s">
         <v>1417</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644" s="5" t="s">
         <v>704</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645" s="5" t="s">
         <v>547</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646" s="5" t="s">
         <v>547</v>
       </c>
@@ -19065,7 +19065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647" s="5" t="s">
         <v>376</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648" s="5" t="s">
         <v>20</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" s="5" t="s">
         <v>232</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650" s="5" t="s">
         <v>1041</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651" s="5" t="s">
         <v>1428</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652" s="5" t="s">
         <v>1429</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653" s="5" t="s">
         <v>1430</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654" s="5" t="s">
         <v>1186</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655" s="5" t="s">
         <v>1432</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656" s="5" t="s">
         <v>1434</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657" s="5" t="s">
         <v>368</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658" s="5" t="s">
         <v>74</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659" s="5" t="s">
         <v>899</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660" s="5" t="s">
         <v>90</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661" s="5" t="s">
         <v>207</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662" s="5" t="s">
         <v>881</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663" s="5" t="s">
         <v>373</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664" s="5" t="s">
         <v>1060</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665" s="5" t="s">
         <v>897</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666" s="5" t="s">
         <v>1450</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667" s="5" t="s">
         <v>293</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668" s="5" t="s">
         <v>1453</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669" s="5" t="s">
         <v>142</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670" s="5" t="s">
         <v>1456</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671" s="5" t="s">
         <v>580</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672" s="5" t="s">
         <v>373</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673" s="5" t="s">
         <v>1434</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674" s="5" t="s">
         <v>1464</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675" s="5" t="s">
         <v>17</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676" s="5" t="s">
         <v>1469</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677" s="5" t="s">
         <v>1471</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678" s="5" t="s">
         <v>1472</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679" s="5" t="s">
         <v>1474</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680" s="5" t="s">
         <v>931</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681" s="5" t="s">
         <v>1354</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682" s="5" t="s">
         <v>706</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683" s="5" t="s">
         <v>1481</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684" s="5" t="s">
         <v>197</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685" s="5" t="s">
         <v>1428</v>
       </c>
@@ -19845,7 +19845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686" s="5" t="s">
         <v>1238</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687" s="5" t="s">
         <v>574</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688" s="5" t="s">
         <v>687</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689" s="5" t="s">
         <v>545</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" s="5" t="s">
         <v>1492</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691" s="5" t="s">
         <v>1495</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692" s="5" t="s">
         <v>510</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693" s="5" t="s">
         <v>739</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694" s="5" t="s">
         <v>668</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695" s="5" t="s">
         <v>583</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696" s="5" t="s">
         <v>124</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697" s="5" t="s">
         <v>1099</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" s="5" t="s">
         <v>1136</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699" s="5" t="s">
         <v>1060</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700" s="5" t="s">
         <v>1508</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" s="5" t="s">
         <v>1456</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702" s="5" t="s">
         <v>247</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" s="5" t="s">
         <v>286</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705" s="5" t="s">
         <v>1517</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706" s="5" t="s">
         <v>229</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707" s="5" t="s">
         <v>1393</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708" s="5" t="s">
         <v>1522</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709" s="5" t="s">
         <v>1525</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710" s="5" t="s">
         <v>899</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711" s="5" t="s">
         <v>255</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712" s="5" t="s">
         <v>650</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713" s="5" t="s">
         <v>17</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714" s="5" t="s">
         <v>757</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715" s="5" t="s">
         <v>789</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716" s="5" t="s">
         <v>179</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717" s="5" t="s">
         <v>155</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718" s="5" t="s">
         <v>861</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719" s="5" t="s">
         <v>134</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720" s="5" t="s">
         <v>145</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721" s="5" t="s">
         <v>527</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722" s="5" t="s">
         <v>368</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" s="5" t="s">
         <v>167</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724" s="5" t="s">
         <v>1312</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725" s="5" t="s">
         <v>106</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726" s="5" t="s">
         <v>1265</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727" s="5" t="s">
         <v>1130</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728" s="5" t="s">
         <v>681</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729" s="5" t="s">
         <v>1438</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730" s="5" t="s">
         <v>1261</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731" s="5" t="s">
         <v>9</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732" s="5" t="s">
         <v>1554</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733" s="5" t="s">
         <v>182</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735" s="5" t="s">
         <v>1559</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736" s="5" t="s">
         <v>1156</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737" s="5" t="s">
         <v>909</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738" s="5" t="s">
         <v>124</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739" s="5" t="s">
         <v>426</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740" s="5" t="s">
         <v>901</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741" s="5" t="s">
         <v>1568</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742" s="5" t="s">
         <v>98</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743" s="5" t="s">
         <v>74</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744" s="5" t="s">
         <v>1574</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745" s="5" t="s">
         <v>383</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746" s="5" t="s">
         <v>1574</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747" s="5" t="s">
         <v>1103</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748" s="5" t="s">
         <v>290</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749" s="5" t="s">
         <v>524</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750" s="5" t="s">
         <v>449</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751" s="5" t="s">
         <v>1063</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752" s="5" t="s">
         <v>706</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753" s="5" t="s">
         <v>1586</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754" s="5" t="s">
         <v>1238</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755" s="5" t="s">
         <v>530</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756" s="5" t="s">
         <v>802</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757" s="5" t="s">
         <v>1590</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" s="5" t="s">
         <v>901</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759" s="5" t="s">
         <v>668</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760" s="5" t="s">
         <v>564</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761" s="5" t="s">
         <v>701</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762" s="5" t="s">
         <v>1597</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763" s="5" t="s">
         <v>347</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764" s="5" t="s">
         <v>681</v>
       </c>
@@ -21425,7 +21425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765" s="5" t="s">
         <v>881</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766" s="5" t="s">
         <v>699</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A767" s="5" t="s">
         <v>1604</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A768" s="5" t="s">
         <v>1136</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A769" s="5" t="s">
         <v>676</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A770" s="5" t="s">
         <v>1610</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A771" s="5" t="s">
         <v>152</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A772" s="5" t="s">
         <v>729</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A773" s="5" t="s">
         <v>1377</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A774" s="5" t="s">
         <v>57</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A775" s="5" t="s">
         <v>588</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A776" s="5" t="s">
         <v>1464</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A777" s="5" t="s">
         <v>57</v>
       </c>
@@ -21685,7 +21685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A778" s="5" t="s">
         <v>296</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A779" s="5" t="s">
         <v>1205</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A780" s="5" t="s">
         <v>1625</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A781" s="5" t="s">
         <v>865</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A782" s="5" t="s">
         <v>1590</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A783" s="5" t="s">
         <v>197</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A784" s="5" t="s">
         <v>317</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785" s="5" t="s">
         <v>1197</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A786" s="5" t="s">
         <v>912</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787" s="5" t="s">
         <v>909</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A788" s="5" t="s">
         <v>17</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A789" s="5" t="s">
         <v>1636</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A790" s="5" t="s">
         <v>1559</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A791" s="5" t="s">
         <v>757</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792" s="5" t="s">
         <v>789</v>
       </c>
@@ -21985,7 +21985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A793" s="5" t="s">
         <v>1469</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A794" s="5" t="s">
         <v>709</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A795" s="5" t="s">
         <v>1645</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796" s="5" t="s">
         <v>1648</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A797" s="5" t="s">
         <v>1041</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A798" s="5" t="s">
         <v>1414</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A799" s="5" t="s">
         <v>17</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A800" s="5" t="s">
         <v>186</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A801" s="5" t="s">
         <v>1654</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A802" s="5" t="s">
         <v>343</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A803" s="5" t="s">
         <v>782</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A804" s="5" t="s">
         <v>1657</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A805" s="5" t="s">
         <v>232</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A806" s="5" t="s">
         <v>1210</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A807" s="5" t="s">
         <v>1662</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A808" s="5" t="s">
         <v>354</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A809" s="5" t="s">
         <v>1665</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A810" s="5" t="s">
         <v>124</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A811" s="5" t="s">
         <v>802</v>
       </c>
@@ -22365,7 +22365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A812" s="5" t="s">
         <v>844</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A813" s="5" t="s">
         <v>429</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A814" s="5" t="s">
         <v>686</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A815" s="5" t="s">
         <v>652</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A816" s="5" t="s">
         <v>1670</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A817" s="5" t="s">
         <v>303</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A818" s="5" t="s">
         <v>449</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A819" s="5" t="s">
         <v>1186</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A820" s="5" t="s">
         <v>175</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A821" s="5" t="s">
         <v>647</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A822" s="5" t="s">
         <v>564</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A823" s="5" t="s">
         <v>1676</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A824" s="5" t="s">
         <v>1678</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A825" s="5" t="s">
         <v>454</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A826" s="5" t="s">
         <v>1099</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A827" s="5" t="s">
         <v>360</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828" s="5" t="s">
         <v>839</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A829" s="5" t="s">
         <v>527</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830" s="5" t="s">
         <v>713</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A831" s="5" t="s">
         <v>1123</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A832" s="5" t="s">
         <v>1359</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A833" s="5" t="s">
         <v>1371</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A834" s="5" t="s">
         <v>1291</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A835" s="5" t="s">
         <v>978</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A836" s="5" t="s">
         <v>1127</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A837" s="5" t="s">
         <v>241</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A838" s="5" t="s">
         <v>1698</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A839" s="5" t="s">
         <v>932</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A840" s="5" t="s">
         <v>969</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A841" s="5" t="s">
         <v>941</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842" s="5" t="s">
         <v>782</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A843" s="5" t="s">
         <v>709</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A844" s="5" t="s">
         <v>261</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A845" s="5" t="s">
         <v>529</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A846" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A847" s="5" t="s">
         <v>1142</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A848" s="5" t="s">
         <v>1707</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A849" s="5" t="s">
         <v>1517</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A850" s="5" t="s">
         <v>1020</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A851" s="5" t="s">
         <v>590</v>
       </c>
@@ -23165,7 +23165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A852" s="5" t="s">
         <v>1670</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A853" s="5" t="s">
         <v>1414</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A854" s="5" t="s">
         <v>175</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A855" s="5" t="s">
         <v>454</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A856" s="5" t="s">
         <v>483</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A857" s="5" t="s">
         <v>1243</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A858" s="5" t="s">
         <v>1714</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A859" s="5" t="s">
         <v>522</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A860" s="5" t="s">
         <v>58</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A861" s="5" t="s">
         <v>1188</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A862" s="5" t="s">
         <v>0</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A863" s="5" t="s">
         <v>1720</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A864" s="5" t="s">
         <v>1013</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A865" s="5" t="s">
         <v>460</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A866" s="5" t="s">
         <v>440</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A867" s="5" t="s">
         <v>1195</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A868" s="5" t="s">
         <v>124</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A869" s="5" t="s">
         <v>357</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A870" s="5" t="s">
         <v>824</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A871" s="5" t="s">
         <v>220</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A872" s="5" t="s">
         <v>365</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A873" s="5" t="s">
         <v>782</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A874" s="5" t="s">
         <v>131</v>
       </c>
@@ -23625,7 +23625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A875" s="5" t="s">
         <v>858</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876" s="5" t="s">
         <v>1020</v>
       </c>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A877" s="5" t="s">
         <v>1648</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A878" s="5" t="s">
         <v>627</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A879" s="5" t="s">
         <v>216</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A880" s="5" t="s">
         <v>650</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A881" s="5" t="s">
         <v>515</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A882" s="5" t="s">
         <v>9</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A883" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A884" s="5" t="s">
         <v>1748</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A885" s="5" t="s">
         <v>824</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A886" s="5" t="s">
         <v>530</v>
       </c>
@@ -23865,7 +23865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A887" s="5" t="s">
         <v>1384</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A888" s="5" t="s">
         <v>1753</v>
       </c>
@@ -23905,7 +23905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A889" s="5" t="s">
         <v>1755</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A890" s="5" t="s">
         <v>449</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A891" s="5" t="s">
         <v>1167</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A892" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A893" s="5" t="s">
         <v>312</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A894" s="5" t="s">
         <v>90</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A895" s="5" t="s">
         <v>873</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A896" s="5" t="s">
         <v>1765</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A897" s="5" t="s">
         <v>379</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A898" s="5" t="s">
         <v>566</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A899" s="5" t="s">
         <v>744</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A900" s="5" t="s">
         <v>1156</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A901" s="5" t="s">
         <v>1698</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A902" s="5" t="s">
         <v>327</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A903" s="5" t="s">
         <v>1200</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A904" s="5" t="s">
         <v>386</v>
       </c>
@@ -24225,7 +24225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A905" s="5" t="s">
         <v>1231</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A906" s="5" t="s">
         <v>718</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A907" s="5" t="s">
         <v>1186</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A908" s="5" t="s">
         <v>1291</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A909" s="5" t="s">
         <v>1782</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A910" s="5" t="s">
         <v>127</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A911" s="5" t="s">
         <v>460</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A912" s="5" t="s">
         <v>1001</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A913" s="5" t="s">
         <v>257</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A914" s="5" t="s">
         <v>1636</v>
       </c>
@@ -24425,7 +24425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A915" s="5" t="s">
         <v>566</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A916" s="5" t="s">
         <v>131</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A917" s="5" t="s">
         <v>1384</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A918" s="5" t="s">
         <v>281</v>
       </c>
@@ -24505,7 +24505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A919" s="5" t="s">
         <v>24</v>
       </c>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A920" s="5" t="s">
         <v>49</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A921" s="5" t="s">
         <v>1798</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A922" s="5" t="s">
         <v>469</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A923" s="5" t="s">
         <v>522</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A924" s="5" t="s">
         <v>1802</v>
       </c>
@@ -24625,7 +24625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A925" s="5" t="s">
         <v>223</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A926" s="5" t="s">
         <v>826</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A927" s="5" t="s">
         <v>1345</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A928" s="5" t="s">
         <v>13</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A929" s="5" t="s">
         <v>660</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A930" s="5" t="s">
         <v>332</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A931" s="5" t="s">
         <v>1066</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A932" s="5" t="s">
         <v>657</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A933" s="5" t="s">
         <v>383</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A934" s="5" t="s">
         <v>464</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A935" s="5" t="s">
         <v>598</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A936" s="5" t="s">
         <v>1247</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A937" s="5" t="s">
         <v>1390</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A938" s="5" t="s">
         <v>1813</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A939" s="5" t="s">
         <v>1103</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A940" s="5" t="s">
         <v>1525</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A941" s="5" t="s">
         <v>744</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A942" s="5" t="s">
         <v>261</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A943" s="5" t="s">
         <v>1820</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A944" s="5" t="s">
         <v>1597</v>
       </c>
@@ -25025,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A945" s="5" t="s">
         <v>1430</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A946" s="5" t="s">
         <v>777</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A947" s="5" t="s">
         <v>1765</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A948" s="5" t="s">
         <v>1282</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A949" s="5" t="s">
         <v>278</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A950" s="5" t="s">
         <v>1559</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A951" s="5" t="s">
         <v>931</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A952" s="5" t="s">
         <v>1377</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A953" s="5" t="s">
         <v>1654</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A954" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25225,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A955" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A956" s="5" t="s">
         <v>1597</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A957" s="5" t="s">
         <v>507</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A958" s="5" t="s">
         <v>1366</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A959" s="5" t="s">
         <v>1820</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A960" s="5" t="s">
         <v>856</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A961" s="5" t="s">
         <v>1838</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A962" s="5" t="s">
         <v>931</v>
       </c>
@@ -25385,7 +25385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A963" s="5" t="s">
         <v>376</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A964" s="5" t="s">
         <v>742</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A965" s="5" t="s">
         <v>386</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A966" s="5" t="s">
         <v>914</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A967" s="5" t="s">
         <v>1846</v>
       </c>
@@ -25485,7 +25485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A968" s="5" t="s">
         <v>419</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A969" s="5" t="s">
         <v>1782</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A970" s="5" t="s">
         <v>552</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A971" s="5" t="s">
         <v>834</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972" s="5" t="s">
         <v>1222</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A973" s="5" t="s">
         <v>1265</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A974" s="5" t="s">
         <v>1517</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A975" s="5" t="s">
         <v>766</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A976" s="5" t="s">
         <v>507</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A977" s="5" t="s">
         <v>1255</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A978" s="5" t="s">
         <v>1665</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A979" s="5" t="s">
         <v>978</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A980" s="5" t="s">
         <v>1861</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A981" s="5" t="s">
         <v>49</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A982" s="5" t="s">
         <v>853</v>
       </c>
@@ -25785,7 +25785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A983" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A984" s="5" t="s">
         <v>162</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A985" s="5" t="s">
         <v>1870</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A986" s="5" t="s">
         <v>58</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A987" s="5" t="s">
         <v>1186</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A988" s="5" t="s">
         <v>364</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A989" s="5" t="s">
         <v>1877</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A990" s="5" t="s">
         <v>370</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A991" s="5" t="s">
         <v>652</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A992" s="5" t="s">
         <v>1586</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A993" s="5" t="s">
         <v>1265</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A994" s="5" t="s">
         <v>443</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A995" s="5" t="s">
         <v>1636</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A996" s="5" t="s">
         <v>236</v>
       </c>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A997" s="5" t="s">
         <v>1066</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A998" s="5" t="s">
         <v>1517</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A999" s="5" t="s">
         <v>1755</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1000" s="5" t="s">
         <v>818</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1001" s="5" t="s">
         <v>1363</v>
       </c>
@@ -26175,20 +26175,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCABBEE2-3395-47C2-9626-C3684E3ED960}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.765625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -26239,7 +26239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -26256,7 +26256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
@@ -26291,14 +26291,14 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.07421875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>364</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>169</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>1909</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>289</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>299</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>165</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>185</v>
       </c>
@@ -26578,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>439</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>346</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -26620,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>339</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>595</v>
       </c>
@@ -26648,7 +26648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>415</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>716</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>836</v>
       </c>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>137</v>
       </c>
@@ -26774,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>141</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
@@ -26830,7 +26830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>117</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>1910</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>722</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>219</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>113</v>
       </c>
@@ -26900,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>161</v>
       </c>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>73</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>250</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
@@ -26970,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>382</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>31</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>222</v>
       </c>
@@ -27026,14 +27026,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1911</v>
       </c>
@@ -27044,14 +27044,14 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
@@ -27068,12 +27068,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>

--- a/src/loader_package/xlsx/big_pre_load.xlsx
+++ b/src/loader_package/xlsx/big_pre_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\java_project_desautel_pellen_perold\src\loader_package\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{B399591D-5F6E-41E0-B237-1997D581FB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E17619B-7934-4880-A880-21130550D762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -6131,21 +6131,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M894" sqref="M894"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1903</v>
       </c>
@@ -6162,10 +6162,10 @@
         <v>1906</v>
       </c>
       <c r="F1" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1907</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1908</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>97</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>103</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>106</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>110</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>124</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>127</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>131</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>134</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>138</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>142</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>145</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>148</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>152</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>155</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>158</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>162</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>166</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>170</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>121</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>175</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>179</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>182</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>186</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>189</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>191</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>194</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>197</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>200</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>205</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>207</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>210</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>213</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>216</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>220</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>223</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>226</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>229</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>232</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>235</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>238</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>241</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>244</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>247</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>251</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>254</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>257</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>260</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>263</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>266</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>269</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>272</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>275</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>278</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>281</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>283</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>286</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>290</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>293</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>296</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>300</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>303</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>306</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>309</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>312</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>314</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>317</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>167</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>293</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>324</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>244</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>329</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>332</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>269</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>312</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>340</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>343</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>347</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>220</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>58</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>110</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>354</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>357</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>360</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>162</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>365</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>368</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>370</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>373</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>376</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>379</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>383</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>386</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>389</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>392</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>354</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>223</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>399</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>309</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>158</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>406</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>148</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>303</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>314</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>416</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>419</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>213</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>49</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>426</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>429</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>432</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>167</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>238</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>440</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>443</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>446</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>449</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>452</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>454</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>457</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>460</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>463</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>466</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>469</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>32</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>473</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>476</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>479</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>207</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>483</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>486</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>251</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>491</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>494</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>236</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>498</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>500</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>332</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>505</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>507</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>509</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>512</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>515</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>255</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>386</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>522</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>524</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>527</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>529</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>229</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>534</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>537</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>540</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>542</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>545</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>547</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>303</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>552</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>555</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>324</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>558</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>226</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>406</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>564</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>566</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>568</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>260</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>340</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>574</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>577</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>580</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>583</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>446</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>588</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>590</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>593</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>223</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>598</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>601</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>376</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>605</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>608</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>580</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>613</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>20</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>307</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>620</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>32</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>624</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>627</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>630</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>343</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>244</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>636</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>244</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>641</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>644</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>621</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>647</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>650</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>652</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>654</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>97</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>657</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>660</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>663</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>449</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>290</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>668</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>671</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>406</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>678</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>484</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>683</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>686</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>370</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>691</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>446</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>696</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>699</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>701</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>704</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>706</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>709</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>400</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>713</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>114</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>718</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>621</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>399</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>463</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>368</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>729</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>429</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>732</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>735</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>399</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>739</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>247</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>744</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>746</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>749</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>751</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>754</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>558</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>309</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>189</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>763</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>766</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>422</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>771</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>774</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>373</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>419</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>780</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>782</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>564</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>786</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>309</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>789</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>329</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>131</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>793</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>644</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>798</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>307</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>802</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>654</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>530</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>808</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>134</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>153</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>657</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>739</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>815</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>818</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>821</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>823</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>826</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>828</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>831</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>683</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>621</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>839</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>842</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>844</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>847</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>850</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>853</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>856</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>858</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>153</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>861</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>864</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>663</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>534</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>247</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>861</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>873</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>278</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>435</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>216</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>290</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>881</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>300</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>885</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>446</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>889</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>704</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>568</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>895</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>850</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>899</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>901</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>903</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>906</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>909</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>912</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>914</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>839</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>766</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>590</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>920</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>580</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>624</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>568</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>928</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>148</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>931</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>618</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>399</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>232</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>938</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>941</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>166</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>696</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>729</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>950</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>281</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>955</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>65</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>960</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>170</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>454</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>964</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>660</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>135</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>969</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>885</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>194</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>696</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>847</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>78</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>978</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>106</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>744</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>964</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>889</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>676</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>990</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>826</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>406</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>590</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>733</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>828</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>630</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>1001</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>1004</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>400</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>1009</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>821</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>1013</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>90</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>990</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>1020</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>494</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>260</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>1024</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>118</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>1028</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>197</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>608</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>1034</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>920</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>1041</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>938</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>683</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>782</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>383</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>931</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>815</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>1052</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>303</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>343</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>1059</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>1060</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>483</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>1063</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>1066</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>636</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>343</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>647</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>1071</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>839</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>216</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>1009</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>491</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>1082</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>484</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>738</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>360</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>850</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>1090</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>364</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>1093</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>818</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>861</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>826</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>1099</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>630</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>1103</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>751</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>300</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>1110</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>191</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>220</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>1116</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>232</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>620</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>713</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>1028</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>1123</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>960</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>1127</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>1130</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>191</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>1134</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>1136</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>324</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>798</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>590</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>360</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>1142</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>630</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>205</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>110</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>340</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>28</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>110</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>701</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>98</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>1153</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>36</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>1066</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>1159</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>155</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>691</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>309</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>978</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>1167</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>167</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>627</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>1172</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>197</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>901</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>789</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>200</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>818</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>1130</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>1184</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>357</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>1186</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>1188</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>847</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>281</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>842</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>1195</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>1197</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>1037</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>303</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>127</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>1204</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>577</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>568</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>1210</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>266</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>932</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>1034</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>699</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>1215</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>78</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>522</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>118</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>709</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>1223</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>547</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>1130</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>699</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>749</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>1231</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>1234</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>1236</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>1238</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>1240</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>1243</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>566</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>808</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>1071</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>1247</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>1116</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>383</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>491</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>1255</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>440</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>1082</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>1261</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>167</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>469</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>1265</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>786</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>484</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>114</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
         <v>955</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>189</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
         <v>24</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>1279</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>1282</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>364</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>1285</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>735</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>1200</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>286</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>1291</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>354</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>114</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>416</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>650</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>955</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>1140</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>1304</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>473</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>709</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>818</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>1310</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>1312</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>153</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>1315</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>426</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>1282</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>1285</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>484</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
         <v>1323</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
         <v>1326</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>522</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>32</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
         <v>238</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>709</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>155</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
         <v>1335</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
         <v>1261</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>1338</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>1340</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
         <v>1231</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
         <v>1345</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
         <v>1349</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
         <v>844</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
         <v>340</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
         <v>1354</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
         <v>57</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
         <v>889</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
         <v>1359</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
         <v>895</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
         <v>179</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
         <v>1363</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>1366</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>1282</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
         <v>1370</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>1371</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>545</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>469</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>1377</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
         <v>1247</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>885</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
         <v>895</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>78</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
         <v>1384</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
         <v>706</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
         <v>510</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>312</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
         <v>1388</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>1390</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>1393</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
         <v>36</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>678</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>1398</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
         <v>28</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
         <v>118</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
         <v>435</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>1204</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>13</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>386</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
         <v>327</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
         <v>98</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
         <v>1060</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
         <v>1412</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
         <v>1414</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
         <v>1417</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
         <v>704</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
         <v>547</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>547</v>
       </c>
@@ -19065,7 +19065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
         <v>376</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
         <v>20</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
         <v>232</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
         <v>1041</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
         <v>1428</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>1429</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>1430</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>1186</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>1432</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>1434</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>368</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>74</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>899</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>90</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
         <v>207</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>881</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>373</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>1060</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>897</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>1450</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>293</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
         <v>1453</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
         <v>142</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
         <v>1456</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
         <v>580</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
         <v>373</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
         <v>1434</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
         <v>1464</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
         <v>17</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
         <v>1469</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
         <v>1471</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>1472</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
         <v>1474</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
         <v>931</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
         <v>1354</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
         <v>706</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>1481</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
         <v>197</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>1428</v>
       </c>
@@ -19845,7 +19845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
         <v>1238</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
         <v>574</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
         <v>687</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
         <v>545</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
         <v>1492</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
         <v>1495</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
         <v>510</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
         <v>739</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
         <v>668</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
         <v>583</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
         <v>124</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
         <v>1099</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
         <v>1136</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
         <v>1060</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
         <v>1508</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
         <v>1456</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
         <v>247</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
         <v>286</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
         <v>1517</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
         <v>229</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
         <v>1393</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
         <v>1522</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
         <v>1525</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
         <v>899</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
         <v>255</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
         <v>650</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
         <v>17</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
         <v>757</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
         <v>789</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
         <v>179</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
         <v>155</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
         <v>861</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
         <v>134</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
         <v>145</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
         <v>527</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
         <v>368</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
         <v>167</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
         <v>1312</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
         <v>106</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
         <v>1265</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
         <v>1130</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
         <v>681</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
         <v>1438</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
         <v>1261</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
         <v>9</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
         <v>1554</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
         <v>182</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
         <v>1559</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
         <v>1156</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
         <v>909</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
         <v>124</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
         <v>426</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
         <v>901</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
         <v>1568</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
         <v>98</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
         <v>74</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
         <v>1574</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
         <v>383</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
         <v>1574</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
         <v>1103</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
         <v>290</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
         <v>524</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
         <v>449</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
         <v>1063</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
         <v>706</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
         <v>1586</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
         <v>1238</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
         <v>530</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
         <v>802</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
         <v>1590</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
         <v>901</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="5" t="s">
         <v>668</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
         <v>564</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
         <v>701</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
         <v>1597</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
         <v>347</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
         <v>681</v>
       </c>
@@ -21425,7 +21425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
         <v>881</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
         <v>699</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
         <v>1604</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
         <v>1136</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
         <v>676</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
         <v>1610</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
         <v>152</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
         <v>729</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" s="5" t="s">
         <v>1377</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
         <v>57</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
         <v>588</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
         <v>1464</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="5" t="s">
         <v>57</v>
       </c>
@@ -21685,7 +21685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
         <v>296</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
         <v>1205</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
         <v>1625</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" s="5" t="s">
         <v>865</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
         <v>1590</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
         <v>197</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
         <v>317</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
         <v>1197</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="5" t="s">
         <v>912</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
         <v>909</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" s="5" t="s">
         <v>17</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
         <v>1636</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
         <v>1559</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
         <v>757</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
         <v>789</v>
       </c>
@@ -21985,7 +21985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
         <v>1469</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
         <v>709</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
         <v>1645</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
         <v>1648</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
         <v>1041</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
         <v>1414</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
         <v>17</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
         <v>186</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
         <v>1654</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
         <v>343</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
         <v>782</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
         <v>1657</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
         <v>232</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
         <v>1210</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
         <v>1662</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
         <v>354</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
         <v>1665</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
         <v>124</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
         <v>802</v>
       </c>
@@ -22365,7 +22365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
         <v>844</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
         <v>429</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
         <v>686</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
         <v>652</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
         <v>1670</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
         <v>303</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
         <v>449</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
         <v>1186</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
         <v>175</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
         <v>647</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
         <v>564</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
         <v>1676</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
         <v>1678</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
         <v>454</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
         <v>1099</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
         <v>360</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
         <v>839</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
         <v>527</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
         <v>713</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
         <v>1123</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
         <v>1359</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
         <v>1371</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
         <v>1291</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
         <v>978</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
         <v>1127</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
         <v>241</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
         <v>1698</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
         <v>932</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
         <v>969</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
         <v>941</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
         <v>782</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="5" t="s">
         <v>709</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
         <v>261</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
         <v>529</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
         <v>1142</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
         <v>1707</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
         <v>1517</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
         <v>1020</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
         <v>590</v>
       </c>
@@ -23165,7 +23165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
         <v>1670</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
         <v>1414</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
         <v>175</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
         <v>454</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
         <v>483</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
         <v>1243</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
         <v>1714</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
         <v>522</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
         <v>58</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
         <v>1188</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
         <v>0</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
         <v>1720</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
         <v>1013</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
         <v>460</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
         <v>440</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
         <v>1195</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
         <v>124</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
         <v>357</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
         <v>824</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
         <v>220</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
         <v>365</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
         <v>782</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
         <v>131</v>
       </c>
@@ -23625,7 +23625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
         <v>858</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
         <v>1020</v>
       </c>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
         <v>1648</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="5" t="s">
         <v>627</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
         <v>216</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
         <v>650</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
         <v>515</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
         <v>9</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
         <v>1748</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
         <v>824</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
         <v>530</v>
       </c>
@@ -23865,7 +23865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" s="5" t="s">
         <v>1384</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
         <v>1753</v>
       </c>
@@ -23905,7 +23905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
         <v>1755</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
         <v>449</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
         <v>1167</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
         <v>312</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" s="5" t="s">
         <v>90</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" s="5" t="s">
         <v>873</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" s="5" t="s">
         <v>1765</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="5" t="s">
         <v>379</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" s="5" t="s">
         <v>566</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="5" t="s">
         <v>744</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="5" t="s">
         <v>1156</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
         <v>1698</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" s="5" t="s">
         <v>327</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="5" t="s">
         <v>1200</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" s="5" t="s">
         <v>386</v>
       </c>
@@ -24225,7 +24225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
         <v>1231</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" s="5" t="s">
         <v>718</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" s="5" t="s">
         <v>1186</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="5" t="s">
         <v>1291</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="5" t="s">
         <v>1782</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
         <v>127</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
         <v>460</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
         <v>1001</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
         <v>257</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="5" t="s">
         <v>1636</v>
       </c>
@@ -24425,7 +24425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A915" s="5" t="s">
         <v>566</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916" s="5" t="s">
         <v>131</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
         <v>1384</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
         <v>281</v>
       </c>
@@ -24505,7 +24505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
         <v>24</v>
       </c>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" s="5" t="s">
         <v>49</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
         <v>1798</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" s="5" t="s">
         <v>469</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
         <v>522</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
         <v>1802</v>
       </c>
@@ -24625,7 +24625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
         <v>223</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="5" t="s">
         <v>826</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
         <v>1345</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" s="5" t="s">
         <v>13</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
         <v>660</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
         <v>332</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" s="5" t="s">
         <v>1066</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
         <v>657</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" s="5" t="s">
         <v>383</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
         <v>464</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
         <v>598</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936" s="5" t="s">
         <v>1247</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
         <v>1390</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" s="5" t="s">
         <v>1813</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" s="5" t="s">
         <v>1103</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940" s="5" t="s">
         <v>1525</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
         <v>744</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" s="5" t="s">
         <v>261</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
         <v>1820</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944" s="5" t="s">
         <v>1597</v>
       </c>
@@ -25025,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" s="5" t="s">
         <v>1430</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946" s="5" t="s">
         <v>777</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" s="5" t="s">
         <v>1765</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="5" t="s">
         <v>1282</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
         <v>278</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" s="5" t="s">
         <v>1559</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" s="5" t="s">
         <v>931</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" s="5" t="s">
         <v>1377</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
         <v>1654</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25225,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" s="5" t="s">
         <v>1597</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" s="5" t="s">
         <v>507</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" s="5" t="s">
         <v>1366</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
         <v>1820</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="5" t="s">
         <v>856</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
         <v>1838</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
         <v>931</v>
       </c>
@@ -25385,7 +25385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
         <v>376</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
         <v>742</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
         <v>386</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
         <v>914</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
         <v>1846</v>
       </c>
@@ -25485,7 +25485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
         <v>419</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
         <v>1782</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
         <v>552</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
         <v>834</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
         <v>1222</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
         <v>1265</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
         <v>1517</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
         <v>766</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
         <v>507</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
         <v>1255</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
         <v>1665</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
         <v>978</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
         <v>1861</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
         <v>49</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
         <v>853</v>
       </c>
@@ -25785,7 +25785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
         <v>162</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
         <v>1870</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
         <v>58</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
         <v>1186</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
         <v>364</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
         <v>1877</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
         <v>370</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
         <v>652</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
         <v>1586</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
         <v>1265</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
         <v>443</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="5" t="s">
         <v>1636</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
         <v>236</v>
       </c>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
         <v>1066</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998" s="5" t="s">
         <v>1517</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999" s="5" t="s">
         <v>1755</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
         <v>818</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
         <v>1363</v>
       </c>
@@ -26175,20 +26175,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCABBEE2-3395-47C2-9626-C3684E3ED960}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -26239,7 +26239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -26256,7 +26256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
@@ -26291,14 +26291,14 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>364</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>169</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1909</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>289</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>299</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>165</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>185</v>
       </c>
@@ -26578,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>439</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>346</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -26620,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>339</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>595</v>
       </c>
@@ -26648,7 +26648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>415</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>716</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>836</v>
       </c>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>137</v>
       </c>
@@ -26774,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>141</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
@@ -26830,7 +26830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>117</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>1910</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>722</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>219</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>113</v>
       </c>
@@ -26900,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>161</v>
       </c>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>73</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>250</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
@@ -26970,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>382</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>31</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>222</v>
       </c>
@@ -27026,14 +27026,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1911</v>
       </c>
@@ -27044,14 +27044,14 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
@@ -27068,12 +27068,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>

--- a/src/loader_package/xlsx/big_pre_load.xlsx
+++ b/src/loader_package/xlsx/big_pre_load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\java_project_desautel_pellen_perold\src\loader_package\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E17619B-7934-4880-A880-21130550D762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E635C908-AED9-490E-A43E-DC5DDD93235F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="official" sheetId="4" r:id="rId4"/>
     <sheet name="election" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">elector!$E$1:$E$1001</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6132,7 +6135,7 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6162,7 +6165,7 @@
         <v>1906</v>
       </c>
       <c r="F1" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
